--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1273989.406308581</v>
+        <v>1271737.326597374</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283197</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>36.3270796166972</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>113.6883373826024</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>17.1287014620742</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.21970892729171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>398.5146692103801</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>37.90969376287409</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>36.1341569325235</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>20.95866062610959</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>133.6650819731273</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>171.1167978045328</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>121.8713578254458</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428251</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.95257707283392</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>148.1185786361432</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833905</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>4.019807611472022</v>
+        <v>4.019807611473823</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365897</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="F25" t="n">
-        <v>140.9144183062129</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,13 +2719,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8253826161909023</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>99.9742741983404</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671011995</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>4.019807611472022</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>48.13676080754331</v>
+        <v>133.3722917337045</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3196,10 +3196,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012339</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,16 +3427,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,13 +3667,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833814</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>115.7063133373723</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3901,16 +3901,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>95.12712756824166</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2012.898941548399</v>
+        <v>1197.073083428566</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,13 +4325,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4343,13 +4343,13 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794325</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.038273524211</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2403.038273524211</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2012.898941548399</v>
+        <v>1583.672923492688</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,34 +4425,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218343</v>
+        <v>252.7500180086501</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218343</v>
+        <v>83.81383508074322</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218343</v>
+        <v>83.81383508074322</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>83.81383508074322</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>83.81383508074322</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757129</v>
+        <v>507.434506214537</v>
       </c>
       <c r="U4" t="n">
-        <v>831.0565485757129</v>
+        <v>507.434506214537</v>
       </c>
       <c r="V4" t="n">
-        <v>576.372060369826</v>
+        <v>252.7500180086501</v>
       </c>
       <c r="W4" t="n">
-        <v>576.372060369826</v>
+        <v>252.7500180086501</v>
       </c>
       <c r="X4" t="n">
-        <v>348.3825094718087</v>
+        <v>252.7500180086501</v>
       </c>
       <c r="Y4" t="n">
-        <v>248.1605812624231</v>
+        <v>252.7500180086501</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1311.909787855437</v>
+        <v>1681.836054204827</v>
       </c>
       <c r="C5" t="n">
-        <v>1311.909787855437</v>
+        <v>1312.873537264416</v>
       </c>
       <c r="D5" t="n">
-        <v>1311.909787855437</v>
+        <v>954.6078386576651</v>
       </c>
       <c r="E5" t="n">
-        <v>926.121535257193</v>
+        <v>568.8195860594208</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>561.8740853102173</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>146.8016351552138</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,16 +4565,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4607,10 +4607,10 @@
         <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.509627919559</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="6">
@@ -4635,31 +4635,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>417.6040489720652</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>417.6040489720652</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>417.6040489720652</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>417.6040489720652</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>270.7141014741549</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>103.0112648488738</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4747,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>417.6040489720652</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>417.6040489720652</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V7" t="n">
-        <v>417.6040489720652</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W7" t="n">
-        <v>417.6040489720652</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="X7" t="n">
-        <v>417.6040489720652</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="Y7" t="n">
-        <v>417.6040489720652</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065.110222835252</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="C8" t="n">
-        <v>1696.14770589484</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D8" t="n">
-        <v>1337.882007288089</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E8" t="n">
-        <v>952.0937546898451</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F8" t="n">
-        <v>541.1078499002376</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
         <v>66.5121164321834</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136265</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136265</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2841.849394875185</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="Y8" t="n">
-        <v>2451.710062899373</v>
+        <v>1899.13013587303</v>
       </c>
     </row>
     <row r="9">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124868</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
         <v>66.5121164321834</v>
@@ -4984,28 +4984,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>783.5579673960132</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>614.6217844681063</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>464.5051450557705</v>
+        <v>261.012762333092</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>965.2064322262529</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5255,34 +5255,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,34 +5291,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>739.5354516872154</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>1166.195182806534</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5495,67 +5495,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5744,46 +5744,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>580.8993044876706</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>411.9631215597637</v>
       </c>
       <c r="D22" t="n">
         <v>407.9027098310023</v>
@@ -5899,40 +5899,40 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
         <v>2264.108249235165</v>
@@ -5947,13 +5947,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1211.329899359458</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614405</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>762.5477693179104</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>870.3164745246296</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>701.3802915967227</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>551.263652184387</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>403.3505586019938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121666</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474262</v>
+        <v>194.8007783998309</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998309</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703132</v>
       </c>
     </row>
     <row r="29">
@@ -6455,28 +6455,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6601,10 +6601,10 @@
         <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F31" t="n">
         <v>261.0127623330919</v>
@@ -6680,10 +6680,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6692,55 +6692,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y34" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7020,22 +7020,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>261.0127623330919</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7166,13 +7166,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7193,19 +7193,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M39" t="n">
-        <v>1025.119922845744</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1652.717886400351</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M42" t="n">
-        <v>692.9625378792909</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N42" t="n">
-        <v>1320.560501433898</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O42" t="n">
-        <v>1872.470231673185</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2529.355041543135</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7549,13 +7549,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7731,22 +7731,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>580.8993044876688</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>65.54986409392984</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>200.6320762792609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31.71340154579411</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>65.5498640939298</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>43.72409101823415</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>43.26526345294947</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922675</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>144.5956654067403</v>
+        <v>144.5956654067385</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>43.26526345294944</v>
       </c>
       <c r="F25" t="n">
-        <v>4.506629716718351</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>145.6085800303783</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459085</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>142.4141550350971</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24971,7 +24971,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>131.695219374394</v>
+        <v>46.45968844823275</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,10 +25084,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,16 +25315,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25555,13 +25555,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>46.45968844823103</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,16 +25789,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>50.29392045468958</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>942247.3008387905</v>
+        <v>942247.3008387903</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>942247.3008387905</v>
+        <v>942247.3008387904</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>942247.3008387904</v>
+        <v>942247.3008387905</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>942247.3008387905</v>
+        <v>942247.3008387904</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>942247.3008387905</v>
+        <v>942247.3008387904</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="F2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="G2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="H2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="I2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="J2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="J2" t="n">
-        <v>484287.9598140037</v>
       </c>
       <c r="K2" t="n">
         <v>484287.9598140036</v>
@@ -26344,16 +26344,16 @@
         <v>484287.9598140035</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140034</v>
       </c>
       <c r="O2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140034</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140037</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551199</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405256</v>
@@ -26451,7 +26451,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="O4" t="n">
         <v>14826.69604186736</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1037650.368474469</v>
+        <v>-1037650.368474468</v>
       </c>
       <c r="C6" t="n">
-        <v>291094.377253124</v>
+        <v>291094.3772531237</v>
       </c>
       <c r="D6" t="n">
-        <v>291094.377253124</v>
+        <v>291094.3772531241</v>
       </c>
       <c r="E6" t="n">
-        <v>42926.27214087386</v>
+        <v>42891.53421543776</v>
       </c>
       <c r="F6" t="n">
-        <v>368338.7339482292</v>
+        <v>368303.9960227935</v>
       </c>
       <c r="G6" t="n">
-        <v>368338.7339482291</v>
+        <v>368303.9960227937</v>
       </c>
       <c r="H6" t="n">
-        <v>368338.7339482292</v>
+        <v>368303.9960227935</v>
       </c>
       <c r="I6" t="n">
-        <v>368338.7339482291</v>
+        <v>368303.9960227935</v>
       </c>
       <c r="J6" t="n">
-        <v>150807.5315509517</v>
+        <v>150772.7936255159</v>
       </c>
       <c r="K6" t="n">
-        <v>368338.7339482291</v>
+        <v>368303.9960227935</v>
       </c>
       <c r="L6" t="n">
-        <v>368338.733948229</v>
+        <v>368303.9960227933</v>
       </c>
       <c r="M6" t="n">
-        <v>283283.7060127173</v>
+        <v>283248.9680872814</v>
       </c>
       <c r="N6" t="n">
-        <v>368338.733948229</v>
+        <v>368303.9960227933</v>
       </c>
       <c r="O6" t="n">
-        <v>368338.7339482291</v>
+        <v>368303.9960227932</v>
       </c>
       <c r="P6" t="n">
-        <v>368338.733948229</v>
+        <v>368303.9960227933</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
@@ -26796,22 +26796,22 @@
         <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,32 +27009,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973563</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.3068326973556</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>328.9458121543104</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>272.5496012734511</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>148.897106796954</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>119.3649444248031</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>8.361376531331359</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>256.6980706244464</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,13 +27783,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>108.6208579817973</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>197.6259927259852</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>277.2566436803262</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>198.6143028739362</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>164.340480380167</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.3027978282313</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28734,7 +28734,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -29019,7 +29019,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29478,7 +29478,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.696776052995119e-12</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29952,7 +29952,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>-9.297825982088264e-14</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-8.707735062108396e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>613.2529048371018</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>302.3396059822662</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>195.7502366106279</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>499.3768644016567</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>181.9330708814848</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,28 +33500,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33740,10 +33740,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>698.850866879865</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>624.1318526922785</v>
+        <v>235.5705495535876</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>535.8585467435948</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>169.6252075171357</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34451,34 +34451,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>661.8411144019726</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>471.1188709150834</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>163.785226202392</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>368.0351523183234</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>44.09163190712581</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>556.7168329578467</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>481.5356082478341</v>
+        <v>92.97430510914316</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>23.94570355317173</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>519.7070804799544</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
